--- a/biology/Zoologie/Eremiascincus_pardalis/Eremiascincus_pardalis.xlsx
+++ b/biology/Zoologie/Eremiascincus_pardalis/Eremiascincus_pardalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremiascincus pardalis est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremiascincus pardalis est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre [1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Queensland en Australie ;
 en Nouvelle-Guinée.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 septembre 2012) :
 Eremiascincus pardalis erro (Copland, 1946)
 Eremiascincus pardalis pardalis (Macleay, 1877)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Copland, 1946 : Catalogue of reptiles in the Macleay Museum. Part I. Sphenomorphus pardalis pardalis (Macleay) and Sphenomorphus nigricaudis nigricaudis (Macleay). Proceedings of the Linnean Society of New South Wales, vol. 70, p. 291-311 (texte intégral).
 Macleay, 1877 : The lizards of the Chevert Expedition. Proceedings of the Linnean Society of New South Wales, vol. 2, p. 60-69 &amp; 97-104 (texte intégral).</t>
